--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,26 +8,69 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Documents\repos\binulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1492FB8-DC72-44D4-BBAA-42C8D1F6D81B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFC2C8-CD0F-4A60-94D1-44BF76719A9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AB5CF698-8B4B-4CB6-BC5E-910315228B51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM" sheetId="2" r:id="rId2"/>
-    <sheet name="Pin Mux" sheetId="3" r:id="rId3"/>
+    <sheet name="Key_Layout" sheetId="5" r:id="rId2"/>
+    <sheet name="Pin Count" sheetId="4" r:id="rId3"/>
+    <sheet name="BOM" sheetId="2" r:id="rId4"/>
+    <sheet name="Pin Mux" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>frank</author>
+  </authors>
+  <commentList>
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{B58330A2-AD20-4361-B8F5-DE8E817D6C1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No label on these keys, the function is given by the display
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -80,9 +123,6 @@
     <t>modulus</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal </t>
-  </si>
-  <si>
     <t>octal</t>
   </si>
   <si>
@@ -173,9 +213,6 @@
     <t>Clear All</t>
   </si>
   <si>
-    <t xml:space="preserve">Clear selected </t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -257,27 +294,18 @@
     <t>R-&gt;B</t>
   </si>
   <si>
-    <t>uparrow</t>
-  </si>
-  <si>
-    <t>downarrow</t>
-  </si>
-  <si>
-    <t>leftarrow</t>
-  </si>
-  <si>
-    <t>rightarrow</t>
-  </si>
-  <si>
-    <t>bit index (int)</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Clear selected</t>
+  </si>
+  <si>
     <t>W8</t>
   </si>
   <si>
@@ -387,19 +415,83 @@
   </si>
   <si>
     <t>Calc control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pins required </t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Keypad pins</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ndF LED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Keysel</t>
+  </si>
+  <si>
+    <t>Combolabel</t>
+  </si>
+  <si>
+    <t>/\</t>
+  </si>
+  <si>
+    <t>\/</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Clear Selected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -582,6 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,12 +991,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D7666-294F-443D-BB17-A232AE17218E}">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D7666-294F-443D-BB17-A232AE17218E}">
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -915,34 +1012,35 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -957,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
@@ -968,8 +1066,11 @@
       <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -995,8 +1096,12 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>IF(K3&lt;&gt;"",_xlfn.CONCAT(G3," (",K3,")"),G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1005,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C48" si="1">MOD(A4,8)</f>
+        <f t="shared" ref="C4:C49" si="1">MOD(A4,8)</f>
         <v>1</v>
       </c>
       <c r="D4" s="6">
@@ -1022,8 +1127,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" ref="L4:L49" si="2">IF(K4&lt;&gt;"",_xlfn.CONCAT(G4," (",K4,")"),G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1049,8 +1158,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1076,8 +1189,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1103,8 +1220,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1130,8 +1251,12 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1157,8 +1282,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1184,8 +1313,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1211,8 +1344,12 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1238,8 +1375,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1265,13 +1406,17 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:B48" si="2">(A14-C14)/8</f>
+        <f t="shared" ref="B14:B49" si="3">(A14-C14)/8</f>
         <v>1</v>
       </c>
       <c r="C14" s="2">
@@ -1292,13 +1437,17 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C15" s="2">
@@ -1319,13 +1468,17 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -1346,13 +1499,17 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C17" s="2">
@@ -1373,13 +1530,17 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C18" s="2">
@@ -1396,17 +1557,17 @@
       <c r="G18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C19" s="2">
@@ -1417,31 +1578,25 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C20" s="2">
@@ -1452,29 +1607,33 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>+ (RL)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C21" s="2">
@@ -1485,29 +1644,33 @@
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>- (RR)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C22" s="2">
@@ -1518,29 +1681,33 @@
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>/ (&gt;&gt;)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C23" s="2">
@@ -1551,29 +1718,33 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>* (&lt;&lt;)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C24" s="2">
@@ -1584,29 +1755,23 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C25" s="2">
@@ -1614,32 +1779,36 @@
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>| (~)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C26" s="2">
@@ -1647,28 +1816,36 @@
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; (^)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C27" s="2">
@@ -1679,25 +1856,23 @@
         <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C28" s="2">
@@ -1705,28 +1880,26 @@
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C29" s="2">
@@ -1734,28 +1907,30 @@
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="6"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C30" s="2">
@@ -1763,28 +1938,30 @@
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="6"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C31" s="2">
@@ -1792,28 +1969,30 @@
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="6"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C32" s="2">
@@ -1821,28 +2000,30 @@
         <v>5</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="6"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C33" s="2">
@@ -1850,28 +2031,30 @@
         <v>6</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C34" s="2">
@@ -1879,26 +2062,30 @@
         <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C35" s="2">
@@ -1906,36 +2093,30 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="7"/>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -1943,36 +2124,40 @@
         <v>1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>DEC (W8)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C37" s="2">
@@ -1980,36 +2165,40 @@
         <v>2</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OCT (W16)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C38" s="2">
@@ -2017,36 +2206,40 @@
         <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>HEX (W32)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C39" s="2">
@@ -2054,28 +2247,40 @@
         <v>4</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>BIN (W64)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C40" s="2">
@@ -2083,28 +2288,32 @@
         <v>5</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>CS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C41" s="2">
@@ -2112,36 +2321,32 @@
         <v>6</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="7"/>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C42" s="2">
@@ -2149,28 +2354,40 @@
         <v>7</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>/\ (Menu)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C43" s="2">
@@ -2178,28 +2395,32 @@
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>\/</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C44" s="2">
@@ -2207,28 +2428,32 @@
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C45" s="2">
@@ -2236,28 +2461,32 @@
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C46" s="2">
@@ -2265,28 +2494,32 @@
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>R-&gt;A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C47" s="2">
@@ -2294,63 +2527,4239 @@
         <v>4</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>R-&gt;B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="D48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="7"/>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52">
+        <f>B49+1+8</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C12B880-A8E3-4C67-A6A5-1DD4E0ADB650}">
+  <dimension ref="A4:X86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="24" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="12">
+        <f>VLOOKUP(A5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <f>VLOOKUP(B5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <f>VLOOKUP(C5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <f>VLOOKUP(D5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>VLOOKUP(E5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <f>VLOOKUP(F5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <f>VLOOKUP(G5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <f>VLOOKUP(H5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <f>VLOOKUP(I5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <f>VLOOKUP(J5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <f>VLOOKUP(K5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <f>VLOOKUP(L5,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="12">
+        <f>VLOOKUP(A6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <f>VLOOKUP(B6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <f>VLOOKUP(C6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <f>VLOOKUP(D6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>VLOOKUP(E6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <f>VLOOKUP(F6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f>VLOOKUP(G6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>DEC (W8)</v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f>VLOOKUP(H6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>OCT (W16)</v>
+      </c>
+      <c r="U6" s="12" t="str">
+        <f>VLOOKUP(I6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>HEX (W32)</v>
+      </c>
+      <c r="V6" s="12" t="str">
+        <f>VLOOKUP(J6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>BIN (W64)</v>
+      </c>
+      <c r="W6" s="12" t="str">
+        <f>VLOOKUP(K6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>/\ (Menu)</v>
+      </c>
+      <c r="X6" s="12">
+        <f>VLOOKUP(L6,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="12">
+        <f>VLOOKUP(A7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <f>VLOOKUP(B7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <f>VLOOKUP(C7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <f>VLOOKUP(D7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>VLOOKUP(E7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <f>VLOOKUP(F7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>VLOOKUP(G7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>CA</v>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>VLOOKUP(H7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>CS</v>
+      </c>
+      <c r="U7" s="12">
+        <f>VLOOKUP(I7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>VLOOKUP(J7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="W7" s="12">
+        <f>VLOOKUP(K7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f>VLOOKUP(L7,Keymap!$D$3:$L$49,9,0)</f>
+        <v>&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="12">
+        <f>VLOOKUP(A8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <f>VLOOKUP(B8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <f>VLOOKUP(C8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <f>VLOOKUP(D8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>VLOOKUP(E8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <f>VLOOKUP(F8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="str">
+        <f>VLOOKUP(G8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>D</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f>VLOOKUP(H8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>E</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f>VLOOKUP(I8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>F</v>
+      </c>
+      <c r="V8" s="12">
+        <f>VLOOKUP(J8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="12" t="str">
+        <f>VLOOKUP(K8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>\/</v>
+      </c>
+      <c r="X8" s="12">
+        <f>VLOOKUP(L8,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="12">
+        <f>VLOOKUP(A9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <f>VLOOKUP(B9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <f>VLOOKUP(C9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <f>VLOOKUP(D9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>VLOOKUP(E9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <f>VLOOKUP(F9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f>VLOOKUP(G9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>A</v>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f>VLOOKUP(H9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>B</v>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f>VLOOKUP(I9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>C</v>
+      </c>
+      <c r="V9" s="12" t="str">
+        <f>VLOOKUP(J10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>* (&lt;&lt;)</v>
+      </c>
+      <c r="W9" s="12" t="str">
+        <f>VLOOKUP(K10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>/ (&gt;&gt;)</v>
+      </c>
+      <c r="X9" s="12">
+        <f>VLOOKUP(L9,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="12">
+        <f>VLOOKUP(A10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <f>VLOOKUP(B10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <f>VLOOKUP(C10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <f>VLOOKUP(D10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>VLOOKUP(E10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <f>VLOOKUP(F10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <f>VLOOKUP(G10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="T10" s="12">
+        <f>VLOOKUP(H10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U10" s="12">
+        <f>VLOOKUP(I10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>VLOOKUP(J11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>+ (RL)</v>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f>VLOOKUP(K11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>- (RR)</v>
+      </c>
+      <c r="X10" s="12">
+        <f>VLOOKUP(L10,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="12">
+        <f>VLOOKUP(A11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <f>VLOOKUP(B11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <f>VLOOKUP(C11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <f>VLOOKUP(D11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>VLOOKUP(E11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <f>VLOOKUP(F11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <f>VLOOKUP(G11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T11" s="12">
+        <f>VLOOKUP(H11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U11" s="12">
+        <f>VLOOKUP(I11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="V11" s="12" t="str">
+        <f>VLOOKUP(J11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>+ (RL)</v>
+      </c>
+      <c r="W11" s="12" t="str">
+        <f>VLOOKUP(K11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>- (RR)</v>
+      </c>
+      <c r="X11" s="12">
+        <f>VLOOKUP(L11,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="12">
+        <f>VLOOKUP(A12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f>VLOOKUP(B12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <f>VLOOKUP(C12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <f>VLOOKUP(D12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>VLOOKUP(E12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <f>VLOOKUP(F12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <f>VLOOKUP(G12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="12">
+        <f>VLOOKUP(H12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="12">
+        <f>VLOOKUP(I12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V12" s="12" t="str">
+        <f>VLOOKUP(J12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>| (~)</v>
+      </c>
+      <c r="W12" s="12" t="str">
+        <f>VLOOKUP(K12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>&amp; (^)</v>
+      </c>
+      <c r="X12" s="12">
+        <f>VLOOKUP(L12,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="12">
+        <f>VLOOKUP(A13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f>VLOOKUP(B13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <f>VLOOKUP(C13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <f>VLOOKUP(D13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>VLOOKUP(E13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <f>VLOOKUP(F13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <f>VLOOKUP(G13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="12" t="str">
+        <f>VLOOKUP(H13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>=</v>
+      </c>
+      <c r="U13" s="12">
+        <f>VLOOKUP(I13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12" t="str">
+        <f>VLOOKUP(J13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>%</v>
+      </c>
+      <c r="W13" s="12" t="str">
+        <f>VLOOKUP(K13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>=</v>
+      </c>
+      <c r="X13" s="12">
+        <f>VLOOKUP(L13,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M14" s="12">
+        <f>VLOOKUP(A14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <f>VLOOKUP(B14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f>VLOOKUP(C14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <f>VLOOKUP(D14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>VLOOKUP(E14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <f>VLOOKUP(F14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <f>VLOOKUP(G14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <f>VLOOKUP(H14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <f>VLOOKUP(I14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <f>VLOOKUP(J14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <f>VLOOKUP(K14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <f>VLOOKUP(L14,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M15" s="12">
+        <f>VLOOKUP(A15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f>VLOOKUP(B15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <f>VLOOKUP(C15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <f>VLOOKUP(D15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>VLOOKUP(E15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <f>VLOOKUP(F15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <f>VLOOKUP(G15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <f>VLOOKUP(H15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <f>VLOOKUP(I15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <f>VLOOKUP(J15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <f>VLOOKUP(K15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <f>VLOOKUP(L15,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M16" s="12">
+        <f>VLOOKUP(A16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <f>VLOOKUP(B16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <f>VLOOKUP(C16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <f>VLOOKUP(D16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <f>VLOOKUP(E16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <f>VLOOKUP(F16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <f>VLOOKUP(G16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <f>VLOOKUP(H16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <f>VLOOKUP(I16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <f>VLOOKUP(J16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <f>VLOOKUP(K16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <f>VLOOKUP(L16,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M17" s="12">
+        <f>VLOOKUP(A17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f>VLOOKUP(B17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <f>VLOOKUP(C17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <f>VLOOKUP(D17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>VLOOKUP(E17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <f>VLOOKUP(F17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <f>VLOOKUP(G17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <f>VLOOKUP(H17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <f>VLOOKUP(I17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <f>VLOOKUP(J17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <f>VLOOKUP(K17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <f>VLOOKUP(L17,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M18" s="12">
+        <f>VLOOKUP(A18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <f>VLOOKUP(B18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <f>VLOOKUP(C18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <f>VLOOKUP(D18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <f>VLOOKUP(E18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <f>VLOOKUP(F18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <f>VLOOKUP(G18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="12">
+        <f>VLOOKUP(H18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <f>VLOOKUP(I18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <f>VLOOKUP(J18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <f>VLOOKUP(K18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <f>VLOOKUP(L18,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M19" s="12">
+        <f>VLOOKUP(A19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <f>VLOOKUP(B19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <f>VLOOKUP(C19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <f>VLOOKUP(D19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <f>VLOOKUP(E19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <f>VLOOKUP(F19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <f>VLOOKUP(G19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
+        <f>VLOOKUP(H19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <f>VLOOKUP(I19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <f>VLOOKUP(J19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <f>VLOOKUP(K19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <f>VLOOKUP(L19,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M20" s="12">
+        <f>VLOOKUP(A20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <f>VLOOKUP(B20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <f>VLOOKUP(C20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <f>VLOOKUP(D20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <f>VLOOKUP(E20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <f>VLOOKUP(F20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <f>VLOOKUP(G20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="12">
+        <f>VLOOKUP(H20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <f>VLOOKUP(I20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <f>VLOOKUP(J20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <f>VLOOKUP(K20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <f>VLOOKUP(L20,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M21" s="12">
+        <f>VLOOKUP(A21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <f>VLOOKUP(B21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <f>VLOOKUP(C21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <f>VLOOKUP(D21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <f>VLOOKUP(E21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <f>VLOOKUP(F21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <f>VLOOKUP(G21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <f>VLOOKUP(H21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <f>VLOOKUP(I21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
+        <f>VLOOKUP(J21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
+        <f>VLOOKUP(K21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <f>VLOOKUP(L21,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M22" s="12">
+        <f>VLOOKUP(A22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <f>VLOOKUP(B22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <f>VLOOKUP(C22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <f>VLOOKUP(D22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>VLOOKUP(E22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <f>VLOOKUP(F22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <f>VLOOKUP(G22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <f>VLOOKUP(H22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <f>VLOOKUP(I22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <f>VLOOKUP(J22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <f>VLOOKUP(K22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <f>VLOOKUP(L22,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M23" s="12">
+        <f>VLOOKUP(A23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <f>VLOOKUP(B23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <f>VLOOKUP(C23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <f>VLOOKUP(D23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <f>VLOOKUP(E23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <f>VLOOKUP(F23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <f>VLOOKUP(G23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="12">
+        <f>VLOOKUP(H23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <f>VLOOKUP(I23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <f>VLOOKUP(J23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
+        <f>VLOOKUP(K23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
+        <f>VLOOKUP(L23,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M24" s="12">
+        <f>VLOOKUP(A24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <f>VLOOKUP(B24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <f>VLOOKUP(C24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <f>VLOOKUP(D24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <f>VLOOKUP(E24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <f>VLOOKUP(F24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <f>VLOOKUP(G24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <f>VLOOKUP(H24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <f>VLOOKUP(I24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <f>VLOOKUP(J24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <f>VLOOKUP(K24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <f>VLOOKUP(L24,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M25" s="12">
+        <f>VLOOKUP(A25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <f>VLOOKUP(B25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <f>VLOOKUP(C25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <f>VLOOKUP(D25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <f>VLOOKUP(E25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <f>VLOOKUP(F25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <f>VLOOKUP(G25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
+        <f>VLOOKUP(H25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <f>VLOOKUP(I25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <f>VLOOKUP(J25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <f>VLOOKUP(K25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <f>VLOOKUP(L25,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M26" s="12">
+        <f>VLOOKUP(A26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <f>VLOOKUP(B26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <f>VLOOKUP(C26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <f>VLOOKUP(D26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <f>VLOOKUP(E26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="12">
+        <f>VLOOKUP(F26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="12">
+        <f>VLOOKUP(G26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <f>VLOOKUP(H26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="12">
+        <f>VLOOKUP(I26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <f>VLOOKUP(J26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <f>VLOOKUP(K26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
+        <f>VLOOKUP(L26,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M27" s="12">
+        <f>VLOOKUP(A27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <f>VLOOKUP(B27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <f>VLOOKUP(C27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="12">
+        <f>VLOOKUP(D27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>VLOOKUP(E27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
+        <f>VLOOKUP(F27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="12">
+        <f>VLOOKUP(G27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
+        <f>VLOOKUP(H27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="12">
+        <f>VLOOKUP(I27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <f>VLOOKUP(J27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <f>VLOOKUP(K27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <f>VLOOKUP(L27,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M28" s="12">
+        <f>VLOOKUP(A28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <f>VLOOKUP(B28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <f>VLOOKUP(C28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <f>VLOOKUP(D28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <f>VLOOKUP(E28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <f>VLOOKUP(F28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <f>VLOOKUP(G28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <f>VLOOKUP(H28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="12">
+        <f>VLOOKUP(I28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
+        <f>VLOOKUP(J28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <f>VLOOKUP(K28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
+        <f>VLOOKUP(L28,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M29" s="12">
+        <f>VLOOKUP(A29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <f>VLOOKUP(B29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <f>VLOOKUP(C29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <f>VLOOKUP(D29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <f>VLOOKUP(E29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <f>VLOOKUP(F29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <f>VLOOKUP(G29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <f>VLOOKUP(H29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <f>VLOOKUP(I29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <f>VLOOKUP(J29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
+        <f>VLOOKUP(K29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <f>VLOOKUP(L29,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M30" s="12">
+        <f>VLOOKUP(A30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <f>VLOOKUP(B30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <f>VLOOKUP(C30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <f>VLOOKUP(D30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <f>VLOOKUP(E30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
+        <f>VLOOKUP(F30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <f>VLOOKUP(G30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f>VLOOKUP(H30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <f>VLOOKUP(I30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <f>VLOOKUP(J30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <f>VLOOKUP(K30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <f>VLOOKUP(L30,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M31" s="12">
+        <f>VLOOKUP(A31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <f>VLOOKUP(B31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <f>VLOOKUP(C31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <f>VLOOKUP(D31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>VLOOKUP(E31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <f>VLOOKUP(F31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <f>VLOOKUP(G31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <f>VLOOKUP(H31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <f>VLOOKUP(I31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <f>VLOOKUP(J31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <f>VLOOKUP(K31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <f>VLOOKUP(L31,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M32" s="12">
+        <f>VLOOKUP(A32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <f>VLOOKUP(B32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <f>VLOOKUP(C32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="12">
+        <f>VLOOKUP(D32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>VLOOKUP(E32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
+        <f>VLOOKUP(F32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="12">
+        <f>VLOOKUP(G32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <f>VLOOKUP(H32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="12">
+        <f>VLOOKUP(I32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <f>VLOOKUP(J32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <f>VLOOKUP(K32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="12">
+        <f>VLOOKUP(L32,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M33" s="12">
+        <f>VLOOKUP(A33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <f>VLOOKUP(B33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <f>VLOOKUP(C33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <f>VLOOKUP(D33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <f>VLOOKUP(E33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="12">
+        <f>VLOOKUP(F33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="12">
+        <f>VLOOKUP(G33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
+        <f>VLOOKUP(H33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="12">
+        <f>VLOOKUP(I33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="12">
+        <f>VLOOKUP(J33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <f>VLOOKUP(K33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <f>VLOOKUP(L33,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M34" s="12">
+        <f>VLOOKUP(A34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="12">
+        <f>VLOOKUP(B34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="12">
+        <f>VLOOKUP(C34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="12">
+        <f>VLOOKUP(D34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="12">
+        <f>VLOOKUP(E34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="12">
+        <f>VLOOKUP(F34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="12">
+        <f>VLOOKUP(G34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="12">
+        <f>VLOOKUP(H34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="12">
+        <f>VLOOKUP(I34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="12">
+        <f>VLOOKUP(J34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <f>VLOOKUP(K34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="12">
+        <f>VLOOKUP(L34,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f>VLOOKUP(A35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>VLOOKUP(B35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>VLOOKUP(C35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>VLOOKUP(D35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>VLOOKUP(E35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>VLOOKUP(F35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>VLOOKUP(G35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f>VLOOKUP(H35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>VLOOKUP(I35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>VLOOKUP(J35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f>VLOOKUP(K35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f>VLOOKUP(L35,Keymap!$D$3:$L$49,9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f>VLOOKUP(A36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>VLOOKUP(B36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>VLOOKUP(C36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>VLOOKUP(D36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>VLOOKUP(E36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>VLOOKUP(F36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>VLOOKUP(G36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f>VLOOKUP(H36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>VLOOKUP(I36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>VLOOKUP(J36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f>VLOOKUP(K36,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f>VLOOKUP(A37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>VLOOKUP(B37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>VLOOKUP(C37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>VLOOKUP(D37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>VLOOKUP(E37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>VLOOKUP(F37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>VLOOKUP(G37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f>VLOOKUP(H37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>VLOOKUP(I37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>VLOOKUP(J37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f>VLOOKUP(K37,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f>VLOOKUP(A38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>VLOOKUP(B38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>VLOOKUP(C38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>VLOOKUP(D38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>VLOOKUP(E38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>VLOOKUP(F38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f>VLOOKUP(G38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f>VLOOKUP(H38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>VLOOKUP(I38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>VLOOKUP(J38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f>VLOOKUP(K38,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f>VLOOKUP(A39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>VLOOKUP(B39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>VLOOKUP(C39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>VLOOKUP(D39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>VLOOKUP(E39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>VLOOKUP(F39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>VLOOKUP(G39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f>VLOOKUP(H39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>VLOOKUP(I39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>VLOOKUP(J39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f>VLOOKUP(K39,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f>VLOOKUP(A40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>VLOOKUP(B40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>VLOOKUP(C40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>VLOOKUP(D40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>VLOOKUP(E40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f>VLOOKUP(F40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>VLOOKUP(G40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f>VLOOKUP(H40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>VLOOKUP(I40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>VLOOKUP(J40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f>VLOOKUP(K40,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f>VLOOKUP(A41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>VLOOKUP(B41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>VLOOKUP(C41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>VLOOKUP(D41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f>VLOOKUP(E41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f>VLOOKUP(F41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>VLOOKUP(G41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f>VLOOKUP(H41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>VLOOKUP(I41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f>VLOOKUP(J41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>VLOOKUP(K41,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f>VLOOKUP(A42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>VLOOKUP(B42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>VLOOKUP(C42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>VLOOKUP(D42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>VLOOKUP(E42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f>VLOOKUP(F42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>VLOOKUP(G42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f>VLOOKUP(H42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f>VLOOKUP(I42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f>VLOOKUP(J42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f>VLOOKUP(K42,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f>VLOOKUP(A43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>VLOOKUP(B43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>VLOOKUP(C43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>VLOOKUP(D43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f>VLOOKUP(E43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>VLOOKUP(F43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f>VLOOKUP(G43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f>VLOOKUP(H43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>VLOOKUP(I43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f>VLOOKUP(J43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>VLOOKUP(K43,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f>VLOOKUP(A44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>VLOOKUP(B44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f>VLOOKUP(C44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>VLOOKUP(D44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f>VLOOKUP(E44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f>VLOOKUP(F44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f>VLOOKUP(G44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f>VLOOKUP(H44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f>VLOOKUP(I44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f>VLOOKUP(J44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f>VLOOKUP(K44,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f>VLOOKUP(A45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>VLOOKUP(B45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f>VLOOKUP(C45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>VLOOKUP(D45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f>VLOOKUP(E45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f>VLOOKUP(F45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f>VLOOKUP(G45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f>VLOOKUP(H45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>VLOOKUP(I45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f>VLOOKUP(J45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f>VLOOKUP(K45,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f>VLOOKUP(A46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>VLOOKUP(B46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>VLOOKUP(C46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f>VLOOKUP(D46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f>VLOOKUP(E46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f>VLOOKUP(F46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f>VLOOKUP(G46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f>VLOOKUP(H46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>VLOOKUP(I46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f>VLOOKUP(J46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>VLOOKUP(K46,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f>VLOOKUP(A47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>VLOOKUP(B47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f>VLOOKUP(C47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>VLOOKUP(D47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f>VLOOKUP(E47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f>VLOOKUP(F47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f>VLOOKUP(G47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f>VLOOKUP(H47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>VLOOKUP(I47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f>VLOOKUP(J47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f>VLOOKUP(K47,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f>VLOOKUP(A48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>VLOOKUP(B48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f>VLOOKUP(C48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>VLOOKUP(D48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f>VLOOKUP(E48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f>VLOOKUP(F48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f>VLOOKUP(G48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>VLOOKUP(H48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>VLOOKUP(I48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f>VLOOKUP(J48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f>VLOOKUP(K48,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f>VLOOKUP(A49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>VLOOKUP(B49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f>VLOOKUP(C49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>VLOOKUP(D49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>VLOOKUP(E49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>VLOOKUP(F49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f>VLOOKUP(G49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f>VLOOKUP(H49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>VLOOKUP(I49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f>VLOOKUP(J49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f>VLOOKUP(K49,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f>VLOOKUP(A50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>VLOOKUP(B50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>VLOOKUP(C50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>VLOOKUP(D50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>VLOOKUP(E50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>VLOOKUP(F50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>VLOOKUP(G50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f>VLOOKUP(H50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>VLOOKUP(I50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f>VLOOKUP(J50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f>VLOOKUP(K50,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f>VLOOKUP(A51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>VLOOKUP(B51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>VLOOKUP(C51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>VLOOKUP(D51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>VLOOKUP(E51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>VLOOKUP(F51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>VLOOKUP(G51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f>VLOOKUP(H51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>VLOOKUP(I51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f>VLOOKUP(J51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>VLOOKUP(K51,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f>VLOOKUP(A52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>VLOOKUP(B52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>VLOOKUP(C52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>VLOOKUP(D52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>VLOOKUP(E52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>VLOOKUP(F52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>VLOOKUP(G52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f>VLOOKUP(H52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>VLOOKUP(I52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f>VLOOKUP(J52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>VLOOKUP(K52,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f>VLOOKUP(A53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>VLOOKUP(B53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f>VLOOKUP(C53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>VLOOKUP(D53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>VLOOKUP(E53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>VLOOKUP(F53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>VLOOKUP(G53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>VLOOKUP(H53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>VLOOKUP(I53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f>VLOOKUP(J53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f>VLOOKUP(K53,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f>VLOOKUP(A54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>VLOOKUP(B54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>VLOOKUP(C54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>VLOOKUP(D54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>VLOOKUP(E54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>VLOOKUP(F54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f>VLOOKUP(G54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f>VLOOKUP(H54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>VLOOKUP(I54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f>VLOOKUP(J54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f>VLOOKUP(K54,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f>VLOOKUP(A55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>VLOOKUP(B55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>VLOOKUP(C55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>VLOOKUP(D55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>VLOOKUP(E55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>VLOOKUP(F55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f>VLOOKUP(G55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f>VLOOKUP(H55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>VLOOKUP(I55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f>VLOOKUP(J55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f>VLOOKUP(K55,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f>VLOOKUP(A56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>VLOOKUP(B56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f>VLOOKUP(C56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>VLOOKUP(D56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>VLOOKUP(E56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f>VLOOKUP(F56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f>VLOOKUP(G56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f>VLOOKUP(H56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>VLOOKUP(I56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f>VLOOKUP(J56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>VLOOKUP(K56,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f>VLOOKUP(A57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f>VLOOKUP(B57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f>VLOOKUP(C57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>VLOOKUP(D57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>VLOOKUP(E57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f>VLOOKUP(F57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f>VLOOKUP(G57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f>VLOOKUP(H57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>VLOOKUP(I57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f>VLOOKUP(J57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f>VLOOKUP(K57,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f>VLOOKUP(A58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>VLOOKUP(B58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>VLOOKUP(C58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>VLOOKUP(D58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>VLOOKUP(E58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f>VLOOKUP(F58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f>VLOOKUP(G58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f>VLOOKUP(H58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>VLOOKUP(I58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f>VLOOKUP(J58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f>VLOOKUP(K58,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f>VLOOKUP(A59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f>VLOOKUP(B59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f>VLOOKUP(C59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f>VLOOKUP(D59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f>VLOOKUP(E59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f>VLOOKUP(F59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f>VLOOKUP(G59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f>VLOOKUP(H59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>VLOOKUP(I59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f>VLOOKUP(J59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f>VLOOKUP(K59,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f>VLOOKUP(A60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f>VLOOKUP(B60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f>VLOOKUP(C60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>VLOOKUP(D60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f>VLOOKUP(E60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f>VLOOKUP(F60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f>VLOOKUP(G60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f>VLOOKUP(H60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>VLOOKUP(I60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f>VLOOKUP(J60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f>VLOOKUP(K60,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f>VLOOKUP(A61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f>VLOOKUP(B61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f>VLOOKUP(C61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>VLOOKUP(D61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f>VLOOKUP(E61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>VLOOKUP(F61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f>VLOOKUP(G61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f>VLOOKUP(H61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>VLOOKUP(I61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f>VLOOKUP(J61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f>VLOOKUP(K61,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f>VLOOKUP(A62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f>VLOOKUP(B62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>VLOOKUP(C62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f>VLOOKUP(D62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f>VLOOKUP(E62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f>VLOOKUP(F62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f>VLOOKUP(G62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f>VLOOKUP(H62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f>VLOOKUP(I62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f>VLOOKUP(J62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f>VLOOKUP(K62,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f>VLOOKUP(A63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f>VLOOKUP(B63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f>VLOOKUP(C63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f>VLOOKUP(D63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f>VLOOKUP(E63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f>VLOOKUP(F63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f>VLOOKUP(G63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f>VLOOKUP(H63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f>VLOOKUP(I63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f>VLOOKUP(J63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f>VLOOKUP(K63,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f>VLOOKUP(A64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f>VLOOKUP(B64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f>VLOOKUP(C64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f>VLOOKUP(D64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f>VLOOKUP(E64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f>VLOOKUP(F64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f>VLOOKUP(G64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f>VLOOKUP(H64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f>VLOOKUP(I64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <f>VLOOKUP(J64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f>VLOOKUP(K64,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f>VLOOKUP(A65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f>VLOOKUP(B65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f>VLOOKUP(C65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f>VLOOKUP(D65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f>VLOOKUP(E65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f>VLOOKUP(F65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f>VLOOKUP(G65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f>VLOOKUP(H65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f>VLOOKUP(I65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f>VLOOKUP(J65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f>VLOOKUP(K65,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>VLOOKUP(A66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f>VLOOKUP(B66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f>VLOOKUP(C66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>VLOOKUP(D66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f>VLOOKUP(E66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f>VLOOKUP(F66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f>VLOOKUP(G66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f>VLOOKUP(H66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f>VLOOKUP(I66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f>VLOOKUP(J66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f>VLOOKUP(K66,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f>VLOOKUP(A67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f>VLOOKUP(B67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f>VLOOKUP(C67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f>VLOOKUP(D67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f>VLOOKUP(E67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f>VLOOKUP(F67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f>VLOOKUP(G67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f>VLOOKUP(H67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f>VLOOKUP(I67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f>VLOOKUP(J67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f>VLOOKUP(K67,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f>VLOOKUP(A68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f>VLOOKUP(B68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f>VLOOKUP(C68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>VLOOKUP(D68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f>VLOOKUP(E68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f>VLOOKUP(F68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f>VLOOKUP(G68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <f>VLOOKUP(H68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f>VLOOKUP(I68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f>VLOOKUP(J68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f>VLOOKUP(K68,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f>VLOOKUP(A69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f>VLOOKUP(B69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f>VLOOKUP(C69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>VLOOKUP(D69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>VLOOKUP(E69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f>VLOOKUP(F69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>VLOOKUP(G69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f>VLOOKUP(H69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f>VLOOKUP(I69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f>VLOOKUP(J69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f>VLOOKUP(K69,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f>VLOOKUP(A70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f>VLOOKUP(B70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f>VLOOKUP(C70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>VLOOKUP(D70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f>VLOOKUP(E70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f>VLOOKUP(F70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f>VLOOKUP(G70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f>VLOOKUP(H70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f>VLOOKUP(I70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f>VLOOKUP(J70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f>VLOOKUP(K70,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f>VLOOKUP(A71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f>VLOOKUP(B71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f>VLOOKUP(C71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f>VLOOKUP(D71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f>VLOOKUP(E71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f>VLOOKUP(F71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f>VLOOKUP(G71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f>VLOOKUP(H71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f>VLOOKUP(I71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <f>VLOOKUP(J71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f>VLOOKUP(K71,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f>VLOOKUP(A72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f>VLOOKUP(B72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f>VLOOKUP(C72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f>VLOOKUP(D72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f>VLOOKUP(E72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f>VLOOKUP(F72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f>VLOOKUP(G72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f>VLOOKUP(H72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f>VLOOKUP(I72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <f>VLOOKUP(J72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f>VLOOKUP(K72,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f>VLOOKUP(A73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>VLOOKUP(B73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f>VLOOKUP(C73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>VLOOKUP(D73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f>VLOOKUP(E73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f>VLOOKUP(F73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f>VLOOKUP(G73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f>VLOOKUP(H73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f>VLOOKUP(I73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f>VLOOKUP(J73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f>VLOOKUP(K73,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f>VLOOKUP(A74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>VLOOKUP(B74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f>VLOOKUP(C74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f>VLOOKUP(D74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f>VLOOKUP(E74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f>VLOOKUP(F74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f>VLOOKUP(G74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f>VLOOKUP(H74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f>VLOOKUP(I74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f>VLOOKUP(J74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f>VLOOKUP(K74,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f>VLOOKUP(A75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f>VLOOKUP(B75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f>VLOOKUP(C75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f>VLOOKUP(D75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f>VLOOKUP(E75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f>VLOOKUP(F75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f>VLOOKUP(G75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f>VLOOKUP(H75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f>VLOOKUP(I75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f>VLOOKUP(J75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f>VLOOKUP(K75,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f>VLOOKUP(A76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f>VLOOKUP(B76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f>VLOOKUP(C76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f>VLOOKUP(D76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f>VLOOKUP(E76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f>VLOOKUP(F76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f>VLOOKUP(G76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f>VLOOKUP(H76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f>VLOOKUP(I76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f>VLOOKUP(J76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f>VLOOKUP(K76,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f>VLOOKUP(A77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f>VLOOKUP(B77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f>VLOOKUP(C77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f>VLOOKUP(D77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f>VLOOKUP(E77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f>VLOOKUP(F77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f>VLOOKUP(G77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f>VLOOKUP(H77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f>VLOOKUP(I77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f>VLOOKUP(J77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f>VLOOKUP(K77,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f>VLOOKUP(A78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f>VLOOKUP(B78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f>VLOOKUP(C78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f>VLOOKUP(D78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f>VLOOKUP(E78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f>VLOOKUP(F78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f>VLOOKUP(G78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f>VLOOKUP(H78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>VLOOKUP(I78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f>VLOOKUP(J78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f>VLOOKUP(K78,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f>VLOOKUP(A79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f>VLOOKUP(B79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f>VLOOKUP(C79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>VLOOKUP(D79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>VLOOKUP(E79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f>VLOOKUP(F79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f>VLOOKUP(G79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f>VLOOKUP(H79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>VLOOKUP(I79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f>VLOOKUP(J79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f>VLOOKUP(K79,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f>VLOOKUP(A80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f>VLOOKUP(B80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f>VLOOKUP(C80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>VLOOKUP(D80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f>VLOOKUP(E80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f>VLOOKUP(F80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f>VLOOKUP(G80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f>VLOOKUP(H80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f>VLOOKUP(I80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f>VLOOKUP(J80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f>VLOOKUP(K80,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f>VLOOKUP(A81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f>VLOOKUP(B81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f>VLOOKUP(C81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f>VLOOKUP(D81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>VLOOKUP(E81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f>VLOOKUP(F81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f>VLOOKUP(G81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f>VLOOKUP(H81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f>VLOOKUP(I81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f>VLOOKUP(J81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f>VLOOKUP(K81,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f>VLOOKUP(A82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f>VLOOKUP(B82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f>VLOOKUP(C82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f>VLOOKUP(D82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f>VLOOKUP(E82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f>VLOOKUP(F82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f>VLOOKUP(G82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f>VLOOKUP(H82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f>VLOOKUP(I82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f>VLOOKUP(J82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f>VLOOKUP(K82,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f>VLOOKUP(A83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f>VLOOKUP(B83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f>VLOOKUP(C83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f>VLOOKUP(D83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f>VLOOKUP(E83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f>VLOOKUP(F83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f>VLOOKUP(G83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f>VLOOKUP(H83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f>VLOOKUP(I83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <f>VLOOKUP(J83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f>VLOOKUP(K83,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f>VLOOKUP(A84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f>VLOOKUP(B84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f>VLOOKUP(C84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f>VLOOKUP(D84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f>VLOOKUP(E84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <f>VLOOKUP(F84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f>VLOOKUP(G84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f>VLOOKUP(H84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f>VLOOKUP(I84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <f>VLOOKUP(J84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f>VLOOKUP(K84,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f>VLOOKUP(A85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f>VLOOKUP(B85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f>VLOOKUP(C85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f>VLOOKUP(D85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f>VLOOKUP(E85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f>VLOOKUP(F85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f>VLOOKUP(G85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f>VLOOKUP(H85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f>VLOOKUP(I85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f>VLOOKUP(J85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <f>VLOOKUP(K85,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f>VLOOKUP(A86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f>VLOOKUP(B86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f>VLOOKUP(C86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f>VLOOKUP(D86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f>VLOOKUP(E86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f>VLOOKUP(F86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f>VLOOKUP(G86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f>VLOOKUP(H86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f>VLOOKUP(I86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f>VLOOKUP(J86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <f>VLOOKUP(K86,Keymap!$D$3:$L$49,8,0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11910E8F-F881-4FEF-8DE8-B91E27082970}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <f>Keymap!B52</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF524C-A33F-43D3-860D-46F0F9167D43}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2358,11 +6767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895AF181-FBD3-4423-B9E0-C4D4707FE481}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Documents\repos\binulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Documents\repos\binulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFC2C8-CD0F-4A60-94D1-44BF76719A9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49017A58-85E5-4029-91A2-9FDC1A1BFADD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AB5CF698-8B4B-4CB6-BC5E-910315228B51}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{AB5CF698-8B4B-4CB6-BC5E-910315228B51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
     <sheet name="Key_Layout" sheetId="5" r:id="rId2"/>
     <sheet name="Pin Count" sheetId="4" r:id="rId3"/>
     <sheet name="BOM" sheetId="2" r:id="rId4"/>
-    <sheet name="Pin Mux" sheetId="3" r:id="rId5"/>
+    <sheet name="power estimate" sheetId="7" r:id="rId5"/>
+    <sheet name="display layout" sheetId="6" r:id="rId6"/>
+    <sheet name="Pin Mux" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="244">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -466,6 +468,342 @@
   </si>
   <si>
     <t>Clear Selected</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t>QTY per device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Postage cost</t>
+  </si>
+  <si>
+    <t>PIXEL dims</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Operating voltage</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>SPI interface</t>
+  </si>
+  <si>
+    <t>https://core-electronics.com.au/50-pin-0-5mm-pitch-top-contact-fpc-smt-connector.html</t>
+  </si>
+  <si>
+    <t>Display connector</t>
+  </si>
+  <si>
+    <t>https://core-electronics.com.au/2-8-tft-display-with-resistive-touchscreen.html?utm_source=google_shopping&amp;gclid=CjwKCAjwzqPcBRAnEiwAzKRgS9iknk_lDDactmHV8T55h4Bo84qGHhKtobF5cuqon29wsBr49jb8XBoCZbAQAvD_BwE</t>
+  </si>
+  <si>
+    <t>2.8 TFT Display with Resistive Touchscreen</t>
+  </si>
+  <si>
+    <t>Display PINS</t>
+  </si>
+  <si>
+    <t>Interface to ILI9341 driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN NAME </t>
+  </si>
+  <si>
+    <t>VDDI</t>
+  </si>
+  <si>
+    <t>VDDI_LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will we use this? </t>
+  </si>
+  <si>
+    <t>VCI</t>
+  </si>
+  <si>
+    <t>Analog power</t>
+  </si>
+  <si>
+    <t>Vcore</t>
+  </si>
+  <si>
+    <t>Regulated output</t>
+  </si>
+  <si>
+    <t>IM3:0</t>
+  </si>
+  <si>
+    <t>MCU ifce mode</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>MEANING pins D[7:0]</t>
+  </si>
+  <si>
+    <t>D7:0</t>
+  </si>
+  <si>
+    <t>parallel input bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESX </t>
+  </si>
+  <si>
+    <t>Active low</t>
+  </si>
+  <si>
+    <t>Connect to GND for operation</t>
+  </si>
+  <si>
+    <t>EXTC</t>
+  </si>
+  <si>
+    <t>extended command set</t>
+  </si>
+  <si>
+    <t>LOGIC PINS</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>SOURCES</t>
+  </si>
+  <si>
+    <t>DIR (IN/OUT)</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>VDDI/VSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN ESSENTIAL? </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>MCU?</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>TBC?</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>chip select input pin</t>
+  </si>
+  <si>
+    <t>No effect on disp mod in parallel mod</t>
+  </si>
+  <si>
+    <t>D/CX (DCX)</t>
+  </si>
+  <si>
+    <t>data/command switch</t>
+  </si>
+  <si>
+    <t>Needed for || mode</t>
+  </si>
+  <si>
+    <t>RDX</t>
+  </si>
+  <si>
+    <t>WRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC? </t>
+  </si>
+  <si>
+    <t>8080-I/II system write signal</t>
+  </si>
+  <si>
+    <t>D17:8</t>
+  </si>
+  <si>
+    <t>Conn to VSS</t>
+  </si>
+  <si>
+    <t>SDI/SDA</t>
+  </si>
+  <si>
+    <t>8080 read signal</t>
+  </si>
+  <si>
+    <t>8080 write signal</t>
+  </si>
+  <si>
+    <t>IN/OUT</t>
+  </si>
+  <si>
+    <t>Serial IO signal</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>Serial output signal</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>if unused open the pin</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>tearing effect output pin</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>what is this</t>
+  </si>
+  <si>
+    <t>DOTCLK</t>
+  </si>
+  <si>
+    <t>dot clock signal for RGB interface operation</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>VSYNC</t>
+  </si>
+  <si>
+    <t>HSYNC</t>
+  </si>
+  <si>
+    <t>frame sync for RGB</t>
+  </si>
+  <si>
+    <t>line sync for RGB</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>data enable for RGB mode=</t>
+  </si>
+  <si>
+    <t>8080-I/II system read signal</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>RGB ifce</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/TE-Connectivity-Alcoswitch/FSM2JRT?qs=sGAEpiMZZMtFyPk3yBMYYCyhGENGH2NPU1ol7T%2fXypo%3d</t>
+  </si>
+  <si>
+    <t>switches</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/STMicroelectronics/STM32F101VCT6?qs=sGAEpiMZZMuoKKEcg8mMKEEgaNexwACoO9ADMQn40mU%3d</t>
+  </si>
+  <si>
+    <t>MCU - STMicroelectronics STM32F101VCT6</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage </t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTTONS </t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDS </t>
+  </si>
+  <si>
+    <t>LCD driver</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/ROHM-Semiconductor/BU33SD5WG-TR?qs=sGAEpiMZZMsMIqGZiACxIdSGhSU%252b3GFE32FMIpI1rfZTloTAi0PROQ%3d%3d</t>
+  </si>
+  <si>
+    <t>3.3V voltage regulator</t>
+  </si>
+  <si>
+    <t>USB connector</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Amphenol-FCI/10118193-0001LF?qs=sGAEpiMZZMuhucAexPYLesFMAgXhqips</t>
   </si>
 </sst>
 </file>
@@ -494,12 +832,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -662,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -678,6 +1028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,10 +1348,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D7666-294F-443D-BB17-A232AE17218E}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A29" workbookViewId="1">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2638,10 +2994,10 @@
   <dimension ref="A4:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,7 +7048,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -6754,20 +7110,823 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF524C-A33F-43D3-860D-46F0F9167D43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B40"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2">
+        <v>30.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>D2*E2+F2</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">D3*E3+F3</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>0.151</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5">
+        <v>9.06</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7">
+        <v>0.61</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G2:G12)</f>
+        <v>51.826999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F1A7A-9196-48A1-BEB8-1076D278492A}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3">
+        <v>3.3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7">
+        <f>4*20</f>
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <f>B7*0.001</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="16">
+        <f>SUM(D3:D7)</f>
+        <v>0.33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86508168-602A-4B3E-8914-51A2FB7F6D83}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20">
+        <v>3.3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21">
+        <v>3.3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="13">
+        <v>8080</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="13">
+        <v>8080</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="13">
+        <v>8080</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="13">
+        <v>8080</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895AF181-FBD3-4423-B9E0-C4D4707FE481}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Documents\repos\binulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49017A58-85E5-4029-91A2-9FDC1A1BFADD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0D98E-56CE-4AB2-A6E7-11459ABD9534}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{AB5CF698-8B4B-4CB6-BC5E-910315228B51}"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
@@ -810,7 +809,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +829,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1009,10 +1016,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1032,8 +1040,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,10 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D7666-294F-443D-BB17-A232AE17218E}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
-    </sheetView>
-    <sheetView topLeftCell="A29" workbookViewId="1">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -2994,9 +3001,6 @@
   <dimension ref="A4:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -7047,10 +7051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11910E8F-F881-4FEF-8DE8-B91E27082970}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7112,11 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF524C-A33F-43D3-860D-46F0F9167D43}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,7 +7205,7 @@
       <c r="B4" t="s">
         <v>228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D4">
@@ -7306,8 +7304,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{62094591-22EE-4986-A182-297BA690668C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7315,8 +7316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F1A7A-9196-48A1-BEB8-1076D278492A}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7405,10 +7405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86508168-602A-4B3E-8914-51A2FB7F6D83}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7931,7 +7928,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Documents\repos\binulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dktrfrd0/Documents/repos/binulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0D98E-56CE-4AB2-A6E7-11459ABD9534}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC4787-C848-8748-93DB-881C9D283555}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="3" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="display layout" sheetId="6" r:id="rId6"/>
     <sheet name="Pin Mux" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="247">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -803,6 +803,15 @@
   </si>
   <si>
     <t>https://au.mouser.com/ProductDetail/Amphenol-FCI/10118193-0001LF?qs=sGAEpiMZZMuhucAexPYLesFMAgXhqips</t>
+  </si>
+  <si>
+    <t>dsheet</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/datasheet/2/389/stm32f101rc-956301.pdf</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/datasheets/62684.pdf</t>
   </si>
 </sst>
 </file>
@@ -1362,23 +1371,23 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1395,7 +1404,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>+ (RL)</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>- (RR)</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>/ (&gt;&gt;)</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>* (&lt;&lt;)</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>%</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>| (~)</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>&amp; (^)</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>DEC (W8)</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2556,7 +2565,7 @@
         <v>OCT (W16)</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>HEX (W32)</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>BIN (W64)</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>CS</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>/\ (Menu)</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>\/</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2811,7 +2820,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>R-&gt;A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>R-&gt;B</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -3004,12 +3013,12 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="24" width="9.5703125" customWidth="1"/>
+    <col min="13" max="24" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>76</v>
       </c>
@@ -3156,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>6</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G10">
         <v>7</v>
       </c>
@@ -3404,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>4</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>1</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G13">
         <v>0</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M14" s="12">
         <f>VLOOKUP(A14,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3646,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M15" s="12">
         <f>VLOOKUP(A15,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3696,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M16" s="12">
         <f>VLOOKUP(A16,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3746,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M17" s="12">
         <f>VLOOKUP(A17,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3796,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M18" s="12">
         <f>VLOOKUP(A18,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3846,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M19" s="12">
         <f>VLOOKUP(A19,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3896,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M20" s="12">
         <f>VLOOKUP(A20,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3946,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M21" s="12">
         <f>VLOOKUP(A21,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3996,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M22" s="12">
         <f>VLOOKUP(A22,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4046,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M23" s="12">
         <f>VLOOKUP(A23,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4096,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M24" s="12">
         <f>VLOOKUP(A24,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4146,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M25" s="12">
         <f>VLOOKUP(A25,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4196,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M26" s="12">
         <f>VLOOKUP(A26,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4246,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M27" s="12">
         <f>VLOOKUP(A27,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4296,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M28" s="12">
         <f>VLOOKUP(A28,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4346,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M29" s="12">
         <f>VLOOKUP(A29,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4396,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M30" s="12">
         <f>VLOOKUP(A30,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4446,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M31" s="12">
         <f>VLOOKUP(A31,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4496,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M32" s="12">
         <f>VLOOKUP(A32,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4546,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M33" s="12">
         <f>VLOOKUP(A33,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4596,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M34" s="12">
         <f>VLOOKUP(A34,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4646,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M35">
         <f>VLOOKUP(A35,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4696,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M36">
         <f>VLOOKUP(A36,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4742,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M37">
         <f>VLOOKUP(A37,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4788,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M38">
         <f>VLOOKUP(A38,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4834,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M39">
         <f>VLOOKUP(A39,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4880,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M40">
         <f>VLOOKUP(A40,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4926,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M41">
         <f>VLOOKUP(A41,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4972,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M42">
         <f>VLOOKUP(A42,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5018,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M43">
         <f>VLOOKUP(A43,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5064,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M44">
         <f>VLOOKUP(A44,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5110,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M45">
         <f>VLOOKUP(A45,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5156,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M46">
         <f>VLOOKUP(A46,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5202,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M47">
         <f>VLOOKUP(A47,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5248,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:24" x14ac:dyDescent="0.2">
       <c r="M48">
         <f>VLOOKUP(A48,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5294,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M49">
         <f>VLOOKUP(A49,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5340,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M50">
         <f>VLOOKUP(A50,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5386,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M51">
         <f>VLOOKUP(A51,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5432,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M52">
         <f>VLOOKUP(A52,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5478,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M53">
         <f>VLOOKUP(A53,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5524,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M54">
         <f>VLOOKUP(A54,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5570,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M55">
         <f>VLOOKUP(A55,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5616,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M56">
         <f>VLOOKUP(A56,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5662,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M57">
         <f>VLOOKUP(A57,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5708,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M58">
         <f>VLOOKUP(A58,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5754,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M59">
         <f>VLOOKUP(A59,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5800,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M60">
         <f>VLOOKUP(A60,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5846,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M61">
         <f>VLOOKUP(A61,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5892,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M62">
         <f>VLOOKUP(A62,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5938,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M63">
         <f>VLOOKUP(A63,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5984,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M64">
         <f>VLOOKUP(A64,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6030,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M65">
         <f>VLOOKUP(A65,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6076,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M66">
         <f>VLOOKUP(A66,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6122,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M67">
         <f>VLOOKUP(A67,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6168,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M68">
         <f>VLOOKUP(A68,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6214,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M69">
         <f>VLOOKUP(A69,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6260,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M70">
         <f>VLOOKUP(A70,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6306,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M71">
         <f>VLOOKUP(A71,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6352,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M72">
         <f>VLOOKUP(A72,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6398,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M73">
         <f>VLOOKUP(A73,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6444,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M74">
         <f>VLOOKUP(A74,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6490,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M75">
         <f>VLOOKUP(A75,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6536,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M76">
         <f>VLOOKUP(A76,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6582,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M77">
         <f>VLOOKUP(A77,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6628,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M78">
         <f>VLOOKUP(A78,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6674,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M79">
         <f>VLOOKUP(A79,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6720,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M80">
         <f>VLOOKUP(A80,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6766,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M81">
         <f>VLOOKUP(A81,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6812,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M82">
         <f>VLOOKUP(A82,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6858,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M83">
         <f>VLOOKUP(A83,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6904,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M84">
         <f>VLOOKUP(A84,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6950,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M85">
         <f>VLOOKUP(A85,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6996,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M86">
         <f>VLOOKUP(A86,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -7053,12 +7062,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7072,7 +7081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -7095,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>123</v>
       </c>
@@ -7111,23 +7120,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF524C-A33F-43D3-860D-46F0F9167D43}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="182.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -7138,19 +7149,22 @@
         <v>134</v>
       </c>
       <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7160,21 +7174,21 @@
       <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <f>D2*E2+F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2*F2+G2</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7184,21 +7198,24 @@
       <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3">
         <v>3.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">D3*E3+F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">E3*F3+G3</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7208,21 +7225,22 @@
       <c r="C4" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17"/>
+      <c r="E4">
         <v>0.151</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.01</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>7.56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7232,21 +7250,24 @@
       <c r="C5" t="s">
         <v>229</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5">
         <v>9.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.01</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>9.07</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7256,21 +7277,21 @@
       <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.56699999999999995</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7280,26 +7301,26 @@
       <c r="C7" t="s">
         <v>243</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
         <v>231</v>
       </c>
-      <c r="G13">
-        <f>SUM(G2:G12)</f>
+      <c r="H13">
+        <f>SUM(H2:H12)</f>
         <v>51.826999999999998</v>
       </c>
     </row>
@@ -7320,13 +7341,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>237</v>
       </c>
@@ -7340,7 +7361,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -7359,18 +7380,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7383,7 +7404,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>231</v>
       </c>
@@ -7407,21 +7428,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -7432,7 +7453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -7443,7 +7464,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -7454,27 +7475,27 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -7482,7 +7503,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -7504,7 +7525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -7512,7 +7533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>161</v>
       </c>
@@ -7564,7 +7585,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>165</v>
       </c>
@@ -7587,7 +7608,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -7613,7 +7634,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -7636,7 +7657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -7659,7 +7680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>186</v>
       </c>
@@ -7685,7 +7706,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>189</v>
       </c>
@@ -7711,7 +7732,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>192</v>
       </c>
@@ -7737,7 +7758,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>193</v>
       </c>
@@ -7763,7 +7784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -7783,7 +7804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -7806,7 +7827,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -7829,7 +7850,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>212</v>
       </c>
@@ -7852,7 +7873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>215</v>
       </c>
@@ -7875,7 +7896,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>216</v>
       </c>
@@ -7898,7 +7919,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -7929,7 +7950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dktrfrd0/Documents/repos/binulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Documents\repos\binulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC4787-C848-8748-93DB-881C9D283555}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDA0B0-4EDE-4D81-84F1-F9701FCB95DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="3" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12225" activeTab="4" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1367,27 +1368,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D7666-294F-443D-BB17-A232AE17218E}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1404,7 +1405,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>+ (RL)</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>- (RR)</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>/ (&gt;&gt;)</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>* (&lt;&lt;)</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>%</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>| (~)</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>&amp; (^)</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>DEC (W8)</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>OCT (W16)</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>HEX (W32)</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>BIN (W64)</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>CS</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>/\ (Menu)</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>\/</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>R-&gt;A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>R-&gt;B</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -3013,12 +3014,12 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="24" width="9.5" customWidth="1"/>
+    <col min="13" max="24" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>76</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>46</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>7</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>4</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>1</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>0</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M14" s="12">
         <f>VLOOKUP(A14,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3655,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M15" s="12">
         <f>VLOOKUP(A15,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M16" s="12">
         <f>VLOOKUP(A16,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3755,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M17" s="12">
         <f>VLOOKUP(A17,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3805,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M18" s="12">
         <f>VLOOKUP(A18,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3855,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M19" s="12">
         <f>VLOOKUP(A19,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3905,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M20" s="12">
         <f>VLOOKUP(A20,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -3955,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M21" s="12">
         <f>VLOOKUP(A21,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4005,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M22" s="12">
         <f>VLOOKUP(A22,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4055,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M23" s="12">
         <f>VLOOKUP(A23,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4105,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M24" s="12">
         <f>VLOOKUP(A24,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4155,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M25" s="12">
         <f>VLOOKUP(A25,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4205,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M26" s="12">
         <f>VLOOKUP(A26,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4255,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M27" s="12">
         <f>VLOOKUP(A27,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4305,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M28" s="12">
         <f>VLOOKUP(A28,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4355,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M29" s="12">
         <f>VLOOKUP(A29,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4405,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M30" s="12">
         <f>VLOOKUP(A30,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4455,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M31" s="12">
         <f>VLOOKUP(A31,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4505,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M32" s="12">
         <f>VLOOKUP(A32,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4555,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M33" s="12">
         <f>VLOOKUP(A33,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4605,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M34" s="12">
         <f>VLOOKUP(A34,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4655,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M35">
         <f>VLOOKUP(A35,Keymap!$D$3:$L$49,9,0)</f>
         <v>0</v>
@@ -4705,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M36">
         <f>VLOOKUP(A36,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4751,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M37">
         <f>VLOOKUP(A37,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4797,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M38">
         <f>VLOOKUP(A38,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4843,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M39">
         <f>VLOOKUP(A39,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4889,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M40">
         <f>VLOOKUP(A40,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4935,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M41">
         <f>VLOOKUP(A41,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -4981,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M42">
         <f>VLOOKUP(A42,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5027,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M43">
         <f>VLOOKUP(A43,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5073,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M44">
         <f>VLOOKUP(A44,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5119,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M45">
         <f>VLOOKUP(A45,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5165,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M46">
         <f>VLOOKUP(A46,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5211,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M47">
         <f>VLOOKUP(A47,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5257,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="13:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M48">
         <f>VLOOKUP(A48,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5303,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M49">
         <f>VLOOKUP(A49,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5349,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M50">
         <f>VLOOKUP(A50,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5395,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M51">
         <f>VLOOKUP(A51,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5441,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M52">
         <f>VLOOKUP(A52,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5487,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M53">
         <f>VLOOKUP(A53,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5533,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M54">
         <f>VLOOKUP(A54,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5579,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M55">
         <f>VLOOKUP(A55,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5625,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M56">
         <f>VLOOKUP(A56,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5671,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M57">
         <f>VLOOKUP(A57,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5717,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M58">
         <f>VLOOKUP(A58,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5763,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M59">
         <f>VLOOKUP(A59,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5809,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M60">
         <f>VLOOKUP(A60,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5855,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M61">
         <f>VLOOKUP(A61,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5901,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M62">
         <f>VLOOKUP(A62,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5947,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>VLOOKUP(A63,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -5993,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M64">
         <f>VLOOKUP(A64,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6039,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M65">
         <f>VLOOKUP(A65,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6085,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M66">
         <f>VLOOKUP(A66,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6131,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M67">
         <f>VLOOKUP(A67,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6177,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M68">
         <f>VLOOKUP(A68,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6223,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M69">
         <f>VLOOKUP(A69,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6269,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M70">
         <f>VLOOKUP(A70,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6315,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M71">
         <f>VLOOKUP(A71,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6361,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M72">
         <f>VLOOKUP(A72,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6407,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M73">
         <f>VLOOKUP(A73,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6453,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M74">
         <f>VLOOKUP(A74,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6499,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M75">
         <f>VLOOKUP(A75,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6545,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M76">
         <f>VLOOKUP(A76,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6591,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M77">
         <f>VLOOKUP(A77,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6637,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M78">
         <f>VLOOKUP(A78,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6683,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M79">
         <f>VLOOKUP(A79,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6729,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M80">
         <f>VLOOKUP(A80,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6775,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M81">
         <f>VLOOKUP(A81,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6821,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M82">
         <f>VLOOKUP(A82,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6867,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M83">
         <f>VLOOKUP(A83,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6913,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M84">
         <f>VLOOKUP(A84,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -6959,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M85">
         <f>VLOOKUP(A85,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -7005,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M86">
         <f>VLOOKUP(A86,Keymap!$D$3:$L$49,8,0)</f>
         <v>0</v>
@@ -7060,14 +7061,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11910E8F-F881-4FEF-8DE8-B91E27082970}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>123</v>
       </c>
@@ -7122,23 +7125,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF524C-A33F-43D3-860D-46F0F9167D43}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="182.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="182.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -7164,14 +7167,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>149</v>
       </c>
       <c r="E2">
@@ -7188,7 +7191,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>231</v>
       </c>
@@ -7327,9 +7330,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{62094591-22EE-4986-A182-297BA690668C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA68F427-2C21-4093-B806-B39C39DB5E53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7337,17 +7341,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F1A7A-9196-48A1-BEB8-1076D278492A}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>237</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -7380,18 +7384,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>231</v>
       </c>
@@ -7426,23 +7430,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86508168-602A-4B3E-8914-51A2FB7F6D83}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -7475,27 +7481,27 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -7533,7 +7539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>161</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>165</v>
       </c>
@@ -7608,7 +7614,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>186</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>189</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>192</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>193</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>212</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>215</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>216</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -7950,7 +7956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Documents\repos\binulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDA0B0-4EDE-4D81-84F1-F9701FCB95DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDFF02-7BF3-4694-A5B6-3A748C8A3130}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12225" activeTab="4" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
+    <workbookView xWindow="30435" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{DD5D3D6A-3E87-44D1-913F-F29D543648C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Pin Count" sheetId="4" r:id="rId3"/>
     <sheet name="BOM" sheetId="2" r:id="rId4"/>
     <sheet name="power estimate" sheetId="7" r:id="rId5"/>
-    <sheet name="display layout" sheetId="6" r:id="rId6"/>
-    <sheet name="Pin Mux" sheetId="3" r:id="rId7"/>
+    <sheet name="battery" sheetId="8" r:id="rId6"/>
+    <sheet name="display layout" sheetId="6" r:id="rId7"/>
+    <sheet name="Pin Mux" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="262">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -813,6 +814,51 @@
   </si>
   <si>
     <t>https://cdn-shop.adafruit.com/datasheets/62684.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/18650-2600mah-li-ion-protected-battery/p/SB2299</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>mAh</t>
+  </si>
+  <si>
+    <t>advised charge rate</t>
+  </si>
+  <si>
+    <t>cut-off charging</t>
+  </si>
+  <si>
+    <t>cut-off discharging</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>max charge current</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>target charge current</t>
+  </si>
+  <si>
+    <t>Kiset</t>
+  </si>
+  <si>
+    <t>Riset</t>
+  </si>
+  <si>
+    <t>ohms</t>
+  </si>
+  <si>
+    <t>Riset(nominal)</t>
+  </si>
+  <si>
+    <t>kohms</t>
   </si>
 </sst>
 </file>
@@ -7341,7 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F1A7A-9196-48A1-BEB8-1076D278492A}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -7427,6 +7473,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94CFC39-4607-4B16-8FCF-9254461C13AB}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3">
+        <v>2600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>2.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7">
+        <f>B3*B4</f>
+        <v>520</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9">
+        <f>B8/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11">
+        <f>B10/B9</f>
+        <v>1740</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86508168-602A-4B3E-8914-51A2FB7F6D83}">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -7950,7 +8129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895AF181-FBD3-4423-B9E0-C4D4707FE481}">
   <dimension ref="A1"/>
   <sheetViews>
